--- a/DataSheet/RegistrationData.xlsx
+++ b/DataSheet/RegistrationData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prade\eclipse-workspace\CapstoneProject\DataSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prade\git\CapstoneProject\CapstoneProject\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8330AD61-AA88-42F3-A336-DACF578880AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A868F474-FECD-4671-B1D3-C028662ACC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/DataSheet/RegistrationData.xlsx
+++ b/DataSheet/RegistrationData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="33">
   <si>
     <t>FirstName</t>
   </si>
@@ -143,6 +143,9 @@
     <t>Last name is required.
 Address is required.
 Username is required.</t>
+  </si>
+  <si>
+    <t>This username already exists.</t>
   </si>
 </sst>
 </file>
@@ -613,7 +616,7 @@
         <v>21</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">

--- a/DataSheet/RegistrationData.xlsx
+++ b/DataSheet/RegistrationData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prade\git\CapstoneProject\CapstoneProject\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A868F474-FECD-4671-B1D3-C028662ACC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712627B3-9E19-460A-BEC8-2878DAB13DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="32">
   <si>
     <t>FirstName</t>
   </si>
@@ -71,9 +69,6 @@
     <t>ConfirmPassword</t>
   </si>
   <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -111,9 +106,6 @@
   </si>
   <si>
     <t>245-568-245</t>
-  </si>
-  <si>
-    <t>Success</t>
   </si>
   <si>
     <t>First name is required.
@@ -146,13 +138,15 @@
   </si>
   <si>
     <t>This username already exists.</t>
+  </si>
+  <si>
+    <t>Expected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -522,35 +516,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="9.33203125"/>
-    <col min="7" max="7" customWidth="true" style="2" width="17.0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="13.88671875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="9.44140625"/>
-    <col min="11" max="11" customWidth="true" width="9.44140625"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="27.77734375" customWidth="1"/>
+    <col min="13" max="13" width="84.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -562,348 +557,324 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" t="s" s="0">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s" s="1">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s" s="0">
-        <v>32</v>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s" s="1">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
         <v>24</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s" s="0">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s" s="1">
+      <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s" s="0">
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="K4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="M4" t="s" s="0">
-        <v>27</v>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s" s="1">
+      <c r="G5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s" s="0">
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="K5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="M5" t="s" s="0">
-        <v>28</v>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s" s="2">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s" s="0">
+      <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="K6" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="M6" t="s" s="0">
-        <v>29</v>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s" s="1">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s" s="2">
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
         <v>24</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L7" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="M7" t="s" s="0">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s" s="1">
+      <c r="G8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s" s="0">
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="K8" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L8" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="M8" t="s" s="0">
-        <v>30</v>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s" s="0">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s" s="1">
+      <c r="G9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="H9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H9" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="I9" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="M9" t="s" s="0">
-        <v>31</v>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/RegistrationData.xlsx
+++ b/DataSheet/RegistrationData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prade\git\CapstoneProject\CapstoneProject\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712627B3-9E19-460A-BEC8-2878DAB13DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3140A9DC-A05A-48A2-9917-A83F931F5062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
   <si>
     <t>FirstName</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>ConfirmPassword</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
   <si>
     <t>Srinivasan</t>
@@ -140,7 +137,13 @@
     <t>This username already exists.</t>
   </si>
   <si>
-    <t>Expected</t>
+    <t>ExpectedResults</t>
+  </si>
+  <si>
+    <t>ActualResults</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -514,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,11 +531,11 @@
     <col min="8" max="8" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.44140625" customWidth="1"/>
-    <col min="12" max="12" width="27.77734375" customWidth="1"/>
+    <col min="12" max="12" width="70.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="84.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,314 +570,317 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>30</v>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/RegistrationData.xlsx
+++ b/DataSheet/RegistrationData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prade\git\CapstoneProject\CapstoneProject\DataSheet\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="36">
   <si>
     <t>FirstName</t>
   </si>
@@ -144,12 +144,22 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Your account was created successfully. You are now logged in.</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,30 +535,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
-    <col min="12" max="12" width="70.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="84.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="9.33203125"/>
+    <col min="7" max="7" customWidth="true" style="2" width="17.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="13.88671875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.44140625"/>
+    <col min="11" max="11" customWidth="true" width="9.44140625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="70.33203125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="84.21875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -560,327 +570,375 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="1">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="J2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s" s="0">
         <v>29</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="C3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="1">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="J3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s" s="0">
         <v>23</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s" s="0">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="C4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="1">
         <v>20</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="J4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s" s="0">
         <v>24</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s" s="0">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="C5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s" s="1">
         <v>20</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="J5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s" s="0">
         <v>25</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s" s="0">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="C6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="J6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s" s="0">
         <v>26</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s" s="0">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="C7" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s" s="1">
         <v>20</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="G7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="J7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s" s="0">
         <v>23</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="N7" t="s" s="0">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="C8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s" s="1">
         <v>20</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="H8" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="J8" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s" s="0">
         <v>27</v>
+      </c>
+      <c r="M8" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="N8" t="s" s="0">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="B9" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s" s="1">
         <v>20</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="I9" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s" s="0">
         <v>28</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s" s="0">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
